--- a/data/panelapp/au/Leukodystrophy - paediatric.xlsx
+++ b/data/panelapp/au/Leukodystrophy - paediatric.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E190"/>
+  <dimension ref="A1:F192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Leukodystrophy - paediatric</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143496</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Leukodystrophy - paediatric</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143507</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -511,12 +526,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ACBD5</t>
+          <t>ABHD16A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>acyl-CoA binding domain containing 5</t>
+          <t>abhydrolase domain containing 16A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -527,6 +542,11 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143511</t>
         </is>
       </c>
     </row>
@@ -536,12 +556,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ACOX1</t>
+          <t>ACBD5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>acyl-CoA oxidase 1</t>
+          <t>acyl-CoA binding domain containing 5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -552,6 +572,11 @@
       <c r="E5" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143513</t>
         </is>
       </c>
     </row>
@@ -561,12 +586,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ADAR</t>
+          <t>ACOX1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>adenosine deaminase, RNA specific</t>
+          <t>acyl-CoA oxidase 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -577,6 +602,11 @@
       <c r="E6" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143516</t>
         </is>
       </c>
     </row>
@@ -586,12 +616,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AIFM1</t>
+          <t>ADAR</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>apoptosis inducing factor mitochondria associated 1</t>
+          <t>adenosine deaminase, RNA specific</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -602,6 +632,11 @@
       <c r="E7" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143519</t>
         </is>
       </c>
     </row>
@@ -611,12 +646,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AIMP1</t>
+          <t>AIFM1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>aminoacyl tRNA synthetase complex interacting multifunctional protein 1</t>
+          <t>apoptosis inducing factor mitochondria associated 1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -627,6 +662,11 @@
       <c r="E8" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143521</t>
         </is>
       </c>
     </row>
@@ -636,12 +676,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ALDH3A2</t>
+          <t>AIMP1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>aldehyde dehydrogenase 3 family member A2</t>
+          <t>aminoacyl tRNA synthetase complex interacting multifunctional protein 1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -652,6 +692,11 @@
       <c r="E9" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143524</t>
         </is>
       </c>
     </row>
@@ -661,12 +706,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AP4B1</t>
+          <t>ALDH3A2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>adaptor related protein complex 4 beta 1 subunit</t>
+          <t>aldehyde dehydrogenase 3 family member A2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -677,6 +722,11 @@
       <c r="E10" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143527</t>
         </is>
       </c>
     </row>
@@ -686,12 +736,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>APOPT1</t>
+          <t>AP4B1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>apoptogenic 1, mitochondrial</t>
+          <t>adaptor related protein complex 4 beta 1 subunit</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -702,6 +752,11 @@
       <c r="E11" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143529</t>
         </is>
       </c>
     </row>
@@ -711,12 +766,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ARSA</t>
+          <t>APOPT1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>arylsulfatase A</t>
+          <t>apoptogenic 1, mitochondrial</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -727,6 +782,11 @@
       <c r="E12" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143532</t>
         </is>
       </c>
     </row>
@@ -736,12 +796,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ASPA</t>
+          <t>ARSA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>aspartoacylase</t>
+          <t>arylsulfatase A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -752,6 +812,11 @@
       <c r="E13" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143534</t>
         </is>
       </c>
     </row>
@@ -761,12 +826,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATP7A</t>
+          <t>ASPA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ATPase copper transporting alpha</t>
+          <t>aspartoacylase</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -777,6 +842,11 @@
       <c r="E14" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143537</t>
         </is>
       </c>
     </row>
@@ -786,12 +856,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AUH</t>
+          <t>ATP7A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AU RNA binding methylglutaconyl-CoA hydratase</t>
+          <t>ATPase copper transporting alpha</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -802,6 +872,11 @@
       <c r="E15" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143539</t>
         </is>
       </c>
     </row>
@@ -811,12 +886,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BCAP31</t>
+          <t>AUH</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>B-cell receptor associated protein 31</t>
+          <t>AU RNA binding methylglutaconyl-CoA hydratase</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -827,6 +902,11 @@
       <c r="E16" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143542</t>
         </is>
       </c>
     </row>
@@ -836,12 +916,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BCS1L</t>
+          <t>BCAP31</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BCS1 homolog, ubiquinol-cytochrome c reductase complex chaperone</t>
+          <t>B-cell receptor associated protein 31</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -852,6 +932,11 @@
       <c r="E17" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143544</t>
         </is>
       </c>
     </row>
@@ -861,12 +946,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BOLA3</t>
+          <t>BCS1L</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>bolA family member 3</t>
+          <t>BCS1 homolog, ubiquinol-cytochrome c reductase complex chaperone</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -877,6 +962,11 @@
       <c r="E18" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143547</t>
         </is>
       </c>
     </row>
@@ -886,12 +976,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>C2orf69</t>
+          <t>BOLA3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>chromosome 2 open reading frame 69</t>
+          <t>bolA family member 3</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -902,6 +992,11 @@
       <c r="E19" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143550</t>
         </is>
       </c>
     </row>
@@ -911,12 +1006,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CIC</t>
+          <t>C2orf69</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>capicua transcriptional repressor</t>
+          <t>chromosome 2 open reading frame 69</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -927,6 +1022,11 @@
       <c r="E20" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143553</t>
         </is>
       </c>
     </row>
@@ -936,12 +1036,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CLCN2</t>
+          <t>CIC</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>chloride voltage-gated channel 2</t>
+          <t>capicua transcriptional repressor</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -952,6 +1052,11 @@
       <c r="E21" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143555</t>
         </is>
       </c>
     </row>
@@ -961,12 +1066,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CLDN11</t>
+          <t>CLCN2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>claudin 11</t>
+          <t>chloride voltage-gated channel 2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -977,6 +1082,11 @@
       <c r="E22" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143558</t>
         </is>
       </c>
     </row>
@@ -986,12 +1096,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CLPP</t>
+          <t>CLDN11</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>caseinolytic mitochondrial matrix peptidase proteolytic subunit</t>
+          <t>claudin 11</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1002,6 +1112,11 @@
       <c r="E23" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143560</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1126,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CNTNAP1</t>
+          <t>CLPP</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>contactin associated protein 1</t>
+          <t>caseinolytic mitochondrial matrix peptidase proteolytic subunit</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1027,6 +1142,11 @@
       <c r="E24" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143563</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1156,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>COA7</t>
+          <t>CNTNAP1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>cytochrome c oxidase assembly factor 7 (putative)</t>
+          <t>contactin associated protein 1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1052,6 +1172,11 @@
       <c r="E25" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143565</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1186,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>COLGALT1</t>
+          <t>COA7</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>collagen beta(1-O)galactosyltransferase 1</t>
+          <t>cytochrome c oxidase assembly factor 7 (putative)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1077,6 +1202,11 @@
       <c r="E26" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143568</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1216,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>COQ2</t>
+          <t>COLGALT1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>coenzyme Q2, polyprenyltransferase</t>
+          <t>collagen beta(1-O)galactosyltransferase 1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1102,6 +1232,11 @@
       <c r="E27" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143570</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1246,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>COX10</t>
+          <t>COQ2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>COX10, heme A:farnesyltransferase cytochrome c oxidase assembly factor</t>
+          <t>coenzyme Q2, polyprenyltransferase</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1127,6 +1262,11 @@
       <c r="E28" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143573</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1276,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>COX15</t>
+          <t>COX10</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>COX15, cytochrome c oxidase assembly homolog</t>
+          <t>COX10, heme A:farnesyltransferase cytochrome c oxidase assembly factor</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1152,6 +1292,11 @@
       <c r="E29" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143575</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1306,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CTC1</t>
+          <t>COX15</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CST telomere replication complex component 1</t>
+          <t>COX15, cytochrome c oxidase assembly homolog</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1177,6 +1322,11 @@
       <c r="E30" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143578</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1336,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CYP7B1</t>
+          <t>CTC1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>cytochrome P450 family 7 subfamily B member 1</t>
+          <t>CST telomere replication complex component 1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1202,6 +1352,11 @@
       <c r="E31" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143581</t>
         </is>
       </c>
     </row>
@@ -1211,12 +1366,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>D2HGDH</t>
+          <t>CYP7B1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>D-2-hydroxyglutarate dehydrogenase</t>
+          <t>cytochrome P450 family 7 subfamily B member 1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1227,6 +1382,11 @@
       <c r="E32" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143583</t>
         </is>
       </c>
     </row>
@@ -1236,12 +1396,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DARS</t>
+          <t>D2HGDH</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>aspartyl-tRNA synthetase</t>
+          <t>D-2-hydroxyglutarate dehydrogenase</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1252,6 +1412,11 @@
       <c r="E33" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143586</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1426,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DARS2</t>
+          <t>DARS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>aspartyl-tRNA synthetase 2, mitochondrial</t>
+          <t>aspartyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1277,6 +1442,11 @@
       <c r="E34" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143588</t>
         </is>
       </c>
     </row>
@@ -1286,12 +1456,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DCAF17</t>
+          <t>DARS2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DDB1 and CUL4 associated factor 17</t>
+          <t>aspartyl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1302,6 +1472,11 @@
       <c r="E35" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143591</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1486,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DEGS1</t>
+          <t>DCAF17</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>delta 4-desaturase, sphingolipid 1</t>
+          <t>DDB1 and CUL4 associated factor 17</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1327,6 +1502,11 @@
       <c r="E36" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143594</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1516,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DGUOK</t>
+          <t>DEGS1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>deoxyguanosine kinase</t>
+          <t>delta 4-desaturase, sphingolipid 1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1352,6 +1532,11 @@
       <c r="E37" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143596</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1546,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DPYD</t>
+          <t>DGUOK</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>dihydropyrimidine dehydrogenase</t>
+          <t>deoxyguanosine kinase</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1377,6 +1562,11 @@
       <c r="E38" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143599</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1576,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EARS2</t>
+          <t>DPYD</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>glutamyl-tRNA synthetase 2, mitochondrial</t>
+          <t>dihydropyrimidine dehydrogenase</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1402,6 +1592,11 @@
       <c r="E39" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143601</t>
         </is>
       </c>
     </row>
@@ -1411,12 +1606,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>EIF2AK2</t>
+          <t>EARS2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>eukaryotic translation initiation factor 2 alpha kinase 2</t>
+          <t>glutamyl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1427,6 +1622,11 @@
       <c r="E40" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143604</t>
         </is>
       </c>
     </row>
@@ -1436,12 +1636,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>EIF2B1</t>
+          <t>EIF2AK2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>eukaryotic translation initiation factor 2B subunit alpha</t>
+          <t>eukaryotic translation initiation factor 2 alpha kinase 2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1452,6 +1652,11 @@
       <c r="E41" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143606</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1666,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EIF2B2</t>
+          <t>EIF2B1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>eukaryotic translation initiation factor 2B subunit beta</t>
+          <t>eukaryotic translation initiation factor 2B subunit alpha</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1477,6 +1682,11 @@
       <c r="E42" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143609</t>
         </is>
       </c>
     </row>
@@ -1486,12 +1696,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>EIF2B3</t>
+          <t>EIF2B2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>eukaryotic translation initiation factor 2B subunit gamma</t>
+          <t>eukaryotic translation initiation factor 2B subunit beta</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1502,6 +1712,11 @@
       <c r="E43" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143612</t>
         </is>
       </c>
     </row>
@@ -1511,12 +1726,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EIF2B4</t>
+          <t>EIF2B3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>eukaryotic translation initiation factor 2B subunit delta</t>
+          <t>eukaryotic translation initiation factor 2B subunit gamma</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1527,6 +1742,11 @@
       <c r="E44" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143614</t>
         </is>
       </c>
     </row>
@@ -1536,12 +1756,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>EIF2B5</t>
+          <t>EIF2B4</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>eukaryotic translation initiation factor 2B subunit epsilon</t>
+          <t>eukaryotic translation initiation factor 2B subunit delta</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1552,6 +1772,11 @@
       <c r="E45" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143617</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1786,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>EPRS</t>
+          <t>EIF2B5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>glutamyl-prolyl-tRNA synthetase</t>
+          <t>eukaryotic translation initiation factor 2B subunit epsilon</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1577,6 +1802,11 @@
       <c r="E46" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143620</t>
         </is>
       </c>
     </row>
@@ -1586,12 +1816,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ERCC6</t>
+          <t>EPRS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ERCC excision repair 6, chromatin remodeling factor</t>
+          <t>glutamyl-prolyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1602,6 +1832,11 @@
       <c r="E47" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143622</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1846,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ERCC8</t>
+          <t>ERCC6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ERCC excision repair 8, CSA ubiquitin ligase complex subunit</t>
+          <t>ERCC excision repair 6, chromatin remodeling factor</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1627,6 +1862,11 @@
       <c r="E48" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143625</t>
         </is>
       </c>
     </row>
@@ -1636,12 +1876,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ETFDH</t>
+          <t>ERCC8</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>electron transfer flavoprotein dehydrogenase</t>
+          <t>ERCC excision repair 8, CSA ubiquitin ligase complex subunit</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1652,6 +1892,11 @@
       <c r="E49" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143627</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1906,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FA2H</t>
+          <t>ETFDH</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>fatty acid 2-hydroxylase</t>
+          <t>electron transfer flavoprotein dehydrogenase</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1677,6 +1922,11 @@
       <c r="E50" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143630</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1936,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FAM126A</t>
+          <t>FA2H</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>family with sequence similarity 126 member A</t>
+          <t>fatty acid 2-hydroxylase</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1702,6 +1952,11 @@
       <c r="E51" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143632</t>
         </is>
       </c>
     </row>
@@ -1711,12 +1966,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FIG4</t>
+          <t>FAM126A</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>FIG4 phosphoinositide 5-phosphatase</t>
+          <t>family with sequence similarity 126 member A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1727,6 +1982,11 @@
       <c r="E52" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143635</t>
         </is>
       </c>
     </row>
@@ -1736,12 +1996,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FOLR1</t>
+          <t>FIG4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>folate receptor 1</t>
+          <t>FIG4 phosphoinositide 5-phosphatase</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1752,6 +2012,11 @@
       <c r="E53" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143637</t>
         </is>
       </c>
     </row>
@@ -1761,12 +2026,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FUCA1</t>
+          <t>FOLR1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>alpha-L-fucosidase 1</t>
+          <t>folate receptor 1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1777,6 +2042,11 @@
       <c r="E54" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143641</t>
         </is>
       </c>
     </row>
@@ -1786,12 +2056,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GALC</t>
+          <t>FUCA1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>galactosylceramidase</t>
+          <t>alpha-L-fucosidase 1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1802,6 +2072,11 @@
       <c r="E55" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143643</t>
         </is>
       </c>
     </row>
@@ -1811,12 +2086,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GFAP</t>
+          <t>GALC</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>glial fibrillary acidic protein</t>
+          <t>galactosylceramidase</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1827,6 +2102,11 @@
       <c r="E56" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143646</t>
         </is>
       </c>
     </row>
@@ -1836,12 +2116,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GFM1</t>
+          <t>GFAP</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>G elongation factor mitochondrial 1</t>
+          <t>glial fibrillary acidic protein</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1852,6 +2132,11 @@
       <c r="E57" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143648</t>
         </is>
       </c>
     </row>
@@ -1861,12 +2146,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GJC2</t>
+          <t>GFM1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>gap junction protein gamma 2</t>
+          <t>G elongation factor mitochondrial 1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1877,6 +2162,11 @@
       <c r="E58" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143651</t>
         </is>
       </c>
     </row>
@@ -1886,12 +2176,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GLB1</t>
+          <t>GJC2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>galactosidase beta 1</t>
+          <t>gap junction protein gamma 2</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1902,6 +2192,11 @@
       <c r="E59" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143653</t>
         </is>
       </c>
     </row>
@@ -1911,12 +2206,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GLRX5</t>
+          <t>GLB1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>glutaredoxin 5</t>
+          <t>galactosidase beta 1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1927,6 +2222,11 @@
       <c r="E60" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143656</t>
         </is>
       </c>
     </row>
@@ -1936,12 +2236,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>HEPACAM</t>
+          <t>GLRX5</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>hepatic and glial cell adhesion molecule</t>
+          <t>glutaredoxin 5</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1952,6 +2252,11 @@
       <c r="E61" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143658</t>
         </is>
       </c>
     </row>
@@ -1961,12 +2266,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>HEXA</t>
+          <t>HEPACAM</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>hexosaminidase subunit alpha</t>
+          <t>hepatic and glial cell adhesion molecule</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1977,6 +2282,11 @@
       <c r="E62" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143661</t>
         </is>
       </c>
     </row>
@@ -1986,12 +2296,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>HIKESHI</t>
+          <t>HEXA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Hikeshi, heat shock protein nuclear import factor</t>
+          <t>hexosaminidase subunit alpha</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2002,6 +2312,11 @@
       <c r="E63" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143663</t>
         </is>
       </c>
     </row>
@@ -2011,12 +2326,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>HMGCL</t>
+          <t>HIKESHI</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3-hydroxymethyl-3-methylglutaryl-CoA lyase</t>
+          <t>Hikeshi, heat shock protein nuclear import factor</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2027,6 +2342,11 @@
       <c r="E64" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143665</t>
         </is>
       </c>
     </row>
@@ -2036,12 +2356,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>HPDL</t>
+          <t>HMGCL</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>4-hydroxyphenylpyruvate dioxygenase like</t>
+          <t>3-hydroxymethyl-3-methylglutaryl-CoA lyase</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2052,6 +2372,11 @@
       <c r="E65" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143668</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2386,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>HSD17B4</t>
+          <t>HPDL</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>hydroxysteroid 17-beta dehydrogenase 4</t>
+          <t>4-hydroxyphenylpyruvate dioxygenase like</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2077,6 +2402,11 @@
       <c r="E66" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143671</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2416,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>HSPD1</t>
+          <t>HSD17B4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>heat shock protein family D (Hsp60) member 1</t>
+          <t>hydroxysteroid 17-beta dehydrogenase 4</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2102,6 +2432,11 @@
       <c r="E67" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143674</t>
         </is>
       </c>
     </row>
@@ -2111,12 +2446,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>IBA57</t>
+          <t>HSPD1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>IBA57 homolog, iron-sulfur cluster assembly</t>
+          <t>heat shock protein family D (Hsp60) member 1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2127,6 +2462,11 @@
       <c r="E68" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143677</t>
         </is>
       </c>
     </row>
@@ -2136,12 +2476,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>IFIH1</t>
+          <t>IBA57</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>interferon induced with helicase C domain 1</t>
+          <t>IBA57 homolog, iron-sulfur cluster assembly</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2152,6 +2492,11 @@
       <c r="E69" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143679</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2506,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ISCA1</t>
+          <t>IFIH1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>iron-sulfur cluster assembly 1</t>
+          <t>interferon induced with helicase C domain 1</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2177,6 +2522,11 @@
       <c r="E70" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143682</t>
         </is>
       </c>
     </row>
@@ -2186,12 +2536,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ISCA2</t>
+          <t>ISCA1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>iron-sulfur cluster assembly 2</t>
+          <t>iron-sulfur cluster assembly 1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2202,6 +2552,11 @@
       <c r="E71" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143684</t>
         </is>
       </c>
     </row>
@@ -2211,12 +2566,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>KARS</t>
+          <t>ISCA2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>lysyl-tRNA synthetase</t>
+          <t>iron-sulfur cluster assembly 2</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2227,6 +2582,11 @@
       <c r="E72" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143687</t>
         </is>
       </c>
     </row>
@@ -2236,12 +2596,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>KIF5A</t>
+          <t>KARS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>kinesin family member 5A</t>
+          <t>lysyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2252,6 +2612,11 @@
       <c r="E73" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143690</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2626,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>L2HGDH</t>
+          <t>KIF5A</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>L-2-hydroxyglutarate dehydrogenase</t>
+          <t>kinesin family member 5A</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2277,6 +2642,11 @@
       <c r="E74" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143692</t>
         </is>
       </c>
     </row>
@@ -2286,12 +2656,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>LIG3</t>
+          <t>L2HGDH</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>DNA ligase 3</t>
+          <t>L-2-hydroxyglutarate dehydrogenase</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2302,6 +2672,11 @@
       <c r="E75" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143695</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2686,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>LYRM7</t>
+          <t>LIG3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>LYR motif containing 7</t>
+          <t>DNA ligase 3</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2327,6 +2702,11 @@
       <c r="E76" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143697</t>
         </is>
       </c>
     </row>
@@ -2336,12 +2716,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MCOLN1</t>
+          <t>LYRM7</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>mucolipin 1</t>
+          <t>LYR motif containing 7</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2352,6 +2732,11 @@
       <c r="E77" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143699</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2746,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MEF2C</t>
+          <t>MCOLN1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>myocyte enhancer factor 2C</t>
+          <t>mucolipin 1</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2377,6 +2762,11 @@
       <c r="E78" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143704</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2776,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MLC1</t>
+          <t>MEF2C</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>megalencephalic leukoencephalopathy with subcortical cysts 1</t>
+          <t>myocyte enhancer factor 2C</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2402,6 +2792,11 @@
       <c r="E79" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143707</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2806,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MTFMT</t>
+          <t>MLC1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>mitochondrial methionyl-tRNA formyltransferase</t>
+          <t>megalencephalic leukoencephalopathy with subcortical cysts 1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2427,6 +2822,11 @@
       <c r="E80" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143709</t>
         </is>
       </c>
     </row>
@@ -2436,12 +2836,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NAXD</t>
+          <t>MTFMT</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>NAD(P)HX dehydratase</t>
+          <t>mitochondrial methionyl-tRNA formyltransferase</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2452,6 +2852,11 @@
       <c r="E81" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143712</t>
         </is>
       </c>
     </row>
@@ -2461,12 +2866,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NAXE</t>
+          <t>NAXD</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>NAD(P)HX epimerase</t>
+          <t>NAD(P)HX dehydratase</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2477,6 +2882,11 @@
       <c r="E82" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143714</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2896,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NDUFAF1</t>
+          <t>NAXE</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase complex assembly factor 1</t>
+          <t>NAD(P)HX epimerase</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2502,6 +2912,11 @@
       <c r="E83" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143717</t>
         </is>
       </c>
     </row>
@@ -2511,12 +2926,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NDUFAF3</t>
+          <t>NDUFAF1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase complex assembly factor 3</t>
+          <t>NADH:ubiquinone oxidoreductase complex assembly factor 1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2527,6 +2942,11 @@
       <c r="E84" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143719</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2956,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NDUFS1</t>
+          <t>NDUFAF3</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase core subunit S1</t>
+          <t>NADH:ubiquinone oxidoreductase complex assembly factor 3</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2552,6 +2972,11 @@
       <c r="E85" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143722</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2986,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NDUFS2</t>
+          <t>NDUFS1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase core subunit S2</t>
+          <t>NADH:ubiquinone oxidoreductase core subunit S1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2577,6 +3002,11 @@
       <c r="E86" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143724</t>
         </is>
       </c>
     </row>
@@ -2586,12 +3016,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NDUFS4</t>
+          <t>NDUFS2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase subunit S4</t>
+          <t>NADH:ubiquinone oxidoreductase core subunit S2</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2602,6 +3032,11 @@
       <c r="E87" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143727</t>
         </is>
       </c>
     </row>
@@ -2611,12 +3046,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NDUFS7</t>
+          <t>NDUFS4</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase core subunit S7</t>
+          <t>NADH:ubiquinone oxidoreductase subunit S4</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2627,6 +3062,11 @@
       <c r="E88" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143729</t>
         </is>
       </c>
     </row>
@@ -2636,12 +3076,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NDUFS8</t>
+          <t>NDUFS7</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase core subunit S8</t>
+          <t>NADH:ubiquinone oxidoreductase core subunit S7</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2652,6 +3092,11 @@
       <c r="E89" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143732</t>
         </is>
       </c>
     </row>
@@ -2661,12 +3106,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NDUFV1</t>
+          <t>NDUFS8</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase core subunit V1</t>
+          <t>NADH:ubiquinone oxidoreductase core subunit S8</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2677,6 +3122,11 @@
       <c r="E90" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143734</t>
         </is>
       </c>
     </row>
@@ -2686,12 +3136,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NFU1</t>
+          <t>NDUFV1</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>NFU1 iron-sulfur cluster scaffold</t>
+          <t>NADH:ubiquinone oxidoreductase core subunit V1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2702,6 +3152,11 @@
       <c r="E91" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143737</t>
         </is>
       </c>
     </row>
@@ -2711,12 +3166,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NKX6-2</t>
+          <t>NFU1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>NK6 homeobox 2</t>
+          <t>NFU1 iron-sulfur cluster scaffold</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2727,6 +3182,11 @@
       <c r="E92" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143739</t>
         </is>
       </c>
     </row>
@@ -2736,12 +3196,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NPC1</t>
+          <t>NKX6-2</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>NPC intracellular cholesterol transporter 1</t>
+          <t>NK6 homeobox 2</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2752,6 +3212,11 @@
       <c r="E93" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143742</t>
         </is>
       </c>
     </row>
@@ -2761,12 +3226,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NUBPL</t>
+          <t>NPC1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>nucleotide binding protein like</t>
+          <t>NPC intracellular cholesterol transporter 1</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2777,6 +3242,11 @@
       <c r="E94" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143745</t>
         </is>
       </c>
     </row>
@@ -2786,12 +3256,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PAFAH1B1</t>
+          <t>NUBPL</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>platelet activating factor acetylhydrolase 1b regulatory subunit 1</t>
+          <t>nucleotide binding protein like</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2802,6 +3272,11 @@
       <c r="E95" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143748</t>
         </is>
       </c>
     </row>
@@ -2811,12 +3286,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>PAFAH1B1</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>pyruvate carboxylase</t>
+          <t>platelet activating factor acetylhydrolase 1b regulatory subunit 1</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2827,6 +3302,11 @@
       <c r="E96" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143751</t>
         </is>
       </c>
     </row>
@@ -2836,12 +3316,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PEX1</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 1</t>
+          <t>pyruvate carboxylase</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2852,6 +3332,11 @@
       <c r="E97" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143753</t>
         </is>
       </c>
     </row>
@@ -2861,12 +3346,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PEX10</t>
+          <t>PEX1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 10</t>
+          <t>peroxisomal biogenesis factor 1</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2877,6 +3362,11 @@
       <c r="E98" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143756</t>
         </is>
       </c>
     </row>
@@ -2886,12 +3376,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PEX11B</t>
+          <t>PEX10</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 11 beta</t>
+          <t>peroxisomal biogenesis factor 10</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2902,6 +3392,11 @@
       <c r="E99" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143758</t>
         </is>
       </c>
     </row>
@@ -2911,12 +3406,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PEX12</t>
+          <t>PEX11B</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 12</t>
+          <t>peroxisomal biogenesis factor 11 beta</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2927,6 +3422,11 @@
       <c r="E100" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143761</t>
         </is>
       </c>
     </row>
@@ -2936,12 +3436,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PEX13</t>
+          <t>PEX12</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 13</t>
+          <t>peroxisomal biogenesis factor 12</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2952,6 +3452,11 @@
       <c r="E101" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143763</t>
         </is>
       </c>
     </row>
@@ -2961,12 +3466,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PEX14</t>
+          <t>PEX13</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 14</t>
+          <t>peroxisomal biogenesis factor 13</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2977,6 +3482,11 @@
       <c r="E102" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143766</t>
         </is>
       </c>
     </row>
@@ -2986,12 +3496,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PEX16</t>
+          <t>PEX14</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 16</t>
+          <t>peroxisomal biogenesis factor 14</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3002,6 +3512,11 @@
       <c r="E103" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143768</t>
         </is>
       </c>
     </row>
@@ -3011,12 +3526,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PEX19</t>
+          <t>PEX16</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 19</t>
+          <t>peroxisomal biogenesis factor 16</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3027,6 +3542,11 @@
       <c r="E104" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143771</t>
         </is>
       </c>
     </row>
@@ -3036,12 +3556,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>PEX2</t>
+          <t>PEX19</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 2</t>
+          <t>peroxisomal biogenesis factor 19</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3052,6 +3572,11 @@
       <c r="E105" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143773</t>
         </is>
       </c>
     </row>
@@ -3061,12 +3586,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PEX26</t>
+          <t>PEX2</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 26</t>
+          <t>peroxisomal biogenesis factor 2</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3077,6 +3602,11 @@
       <c r="E106" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143776</t>
         </is>
       </c>
     </row>
@@ -3086,12 +3616,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PEX3</t>
+          <t>PEX26</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 3</t>
+          <t>peroxisomal biogenesis factor 26</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3102,6 +3632,11 @@
       <c r="E107" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143778</t>
         </is>
       </c>
     </row>
@@ -3111,12 +3646,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PEX5</t>
+          <t>PEX3</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 5</t>
+          <t>peroxisomal biogenesis factor 3</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3127,6 +3662,11 @@
       <c r="E108" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143781</t>
         </is>
       </c>
     </row>
@@ -3136,12 +3676,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>PEX6</t>
+          <t>PEX5</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 6</t>
+          <t>peroxisomal biogenesis factor 5</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3152,6 +3692,11 @@
       <c r="E109" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143784</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3706,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>PEX7</t>
+          <t>PEX6</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 7</t>
+          <t>peroxisomal biogenesis factor 6</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3177,6 +3722,11 @@
       <c r="E110" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143788</t>
         </is>
       </c>
     </row>
@@ -3186,12 +3736,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>PI4KA</t>
+          <t>PEX7</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>phosphatidylinositol 4-kinase alpha</t>
+          <t>peroxisomal biogenesis factor 7</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3202,6 +3752,11 @@
       <c r="E111" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143791</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3766,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>PLP1</t>
+          <t>PI4KA</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>proteolipid protein 1</t>
+          <t>phosphatidylinositol 4-kinase alpha</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3227,6 +3782,11 @@
       <c r="E112" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143793</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3796,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>POLG</t>
+          <t>PLP1</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>DNA polymerase gamma, catalytic subunit</t>
+          <t>proteolipid protein 1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3252,6 +3812,11 @@
       <c r="E113" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143796</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3826,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>POLR1C</t>
+          <t>POLG</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>RNA polymerase I subunit C</t>
+          <t>DNA polymerase gamma, catalytic subunit</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3277,6 +3842,11 @@
       <c r="E114" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143798</t>
         </is>
       </c>
     </row>
@@ -3286,12 +3856,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>POLR3A</t>
+          <t>POLR1C</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>RNA polymerase III subunit A</t>
+          <t>RNA polymerase I subunit C</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3302,6 +3872,11 @@
       <c r="E115" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143801</t>
         </is>
       </c>
     </row>
@@ -3311,12 +3886,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>POLR3B</t>
+          <t>POLR3A</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>RNA polymerase III subunit B</t>
+          <t>RNA polymerase III subunit A</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3327,6 +3902,11 @@
       <c r="E116" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143803</t>
         </is>
       </c>
     </row>
@@ -3336,12 +3916,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>PPP1R21</t>
+          <t>POLR3B</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>protein phosphatase 1 regulatory subunit 21</t>
+          <t>RNA polymerase III subunit B</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3352,6 +3932,11 @@
       <c r="E117" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143806</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3946,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PSAP</t>
+          <t>PPP1R21</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>prosaposin</t>
+          <t>protein phosphatase 1 regulatory subunit 21</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3377,6 +3962,11 @@
       <c r="E118" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143808</t>
         </is>
       </c>
     </row>
@@ -3386,12 +3976,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PTEN</t>
+          <t>PSAP</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>phosphatase and tensin homolog</t>
+          <t>prosaposin</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3402,6 +3992,11 @@
       <c r="E119" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143811</t>
         </is>
       </c>
     </row>
@@ -3411,12 +4006,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PYCR2</t>
+          <t>PTEN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>pyrroline-5-carboxylate reductase 2</t>
+          <t>phosphatase and tensin homolog</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3427,6 +4022,11 @@
       <c r="E120" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143813</t>
         </is>
       </c>
     </row>
@@ -3436,12 +4036,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>RAB11B</t>
+          <t>PYCR2</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>RAB11B, member RAS oncogene family</t>
+          <t>pyrroline-5-carboxylate reductase 2</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3452,6 +4052,11 @@
       <c r="E121" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143816</t>
         </is>
       </c>
     </row>
@@ -3461,12 +4066,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>RARS</t>
+          <t>RAB11B</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>arginyl-tRNA synthetase</t>
+          <t>RAB11B, member RAS oncogene family</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3477,6 +4082,11 @@
       <c r="E122" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143818</t>
         </is>
       </c>
     </row>
@@ -3486,12 +4096,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>RNASEH2A</t>
+          <t>RARS</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ribonuclease H2 subunit A</t>
+          <t>arginyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3502,6 +4112,11 @@
       <c r="E123" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143821</t>
         </is>
       </c>
     </row>
@@ -3511,12 +4126,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>RNASEH2B</t>
+          <t>RNASEH2A</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>ribonuclease H2 subunit B</t>
+          <t>ribonuclease H2 subunit A</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3527,6 +4142,11 @@
       <c r="E124" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143823</t>
         </is>
       </c>
     </row>
@@ -3536,12 +4156,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>RNASEH2C</t>
+          <t>RNASEH2B</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ribonuclease H2 subunit C</t>
+          <t>ribonuclease H2 subunit B</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3552,6 +4172,11 @@
       <c r="E125" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143826</t>
         </is>
       </c>
     </row>
@@ -3561,12 +4186,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>RNASET2</t>
+          <t>RNASEH2C</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>ribonuclease T2</t>
+          <t>ribonuclease H2 subunit C</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3577,6 +4202,11 @@
       <c r="E126" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143828</t>
         </is>
       </c>
     </row>
@@ -3586,12 +4216,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>RNF220</t>
+          <t>RNASET2</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>ring finger protein 220</t>
+          <t>ribonuclease T2</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3602,6 +4232,11 @@
       <c r="E127" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143830</t>
         </is>
       </c>
     </row>
@@ -3611,12 +4246,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>RPIA</t>
+          <t>RNF220</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>ribose 5-phosphate isomerase A</t>
+          <t>ring finger protein 220</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3627,6 +4262,11 @@
       <c r="E128" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143833</t>
         </is>
       </c>
     </row>
@@ -3636,12 +4276,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>RRM2B</t>
+          <t>RPIA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>ribonucleotide reductase regulatory TP53 inducible subunit M2B</t>
+          <t>ribose 5-phosphate isomerase A</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3652,6 +4292,11 @@
       <c r="E129" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143836</t>
         </is>
       </c>
     </row>
@@ -3661,12 +4306,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SAMHD1</t>
+          <t>RRM2B</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SAM and HD domain containing deoxynucleoside triphosphate triphosphohydrolase 1</t>
+          <t>ribonucleotide reductase regulatory TP53 inducible subunit M2B</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3677,6 +4322,11 @@
       <c r="E130" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143840</t>
         </is>
       </c>
     </row>
@@ -3686,12 +4336,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SCO1</t>
+          <t>SAMHD1</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SCO1, cytochrome c oxidase assembly protein</t>
+          <t>SAM and HD domain containing deoxynucleoside triphosphate triphosphohydrolase 1</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3702,6 +4352,11 @@
       <c r="E131" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143843</t>
         </is>
       </c>
     </row>
@@ -3711,12 +4366,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SCO2</t>
+          <t>SCO1</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>SCO2, cytochrome c oxidase assembly protein</t>
+          <t>SCO1, cytochrome c oxidase assembly protein</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3727,6 +4382,11 @@
       <c r="E132" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143845</t>
         </is>
       </c>
     </row>
@@ -3736,12 +4396,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SCP2</t>
+          <t>SCO2</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>sterol carrier protein 2</t>
+          <t>SCO2, cytochrome c oxidase assembly protein</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3752,6 +4412,11 @@
       <c r="E133" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143848</t>
         </is>
       </c>
     </row>
@@ -3761,12 +4426,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SDHA</t>
+          <t>SCP2</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>succinate dehydrogenase complex flavoprotein subunit A</t>
+          <t>sterol carrier protein 2</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3777,6 +4442,11 @@
       <c r="E134" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143850</t>
         </is>
       </c>
     </row>
@@ -3786,12 +4456,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SDHAF1</t>
+          <t>SDHA</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>succinate dehydrogenase complex assembly factor 1</t>
+          <t>succinate dehydrogenase complex flavoprotein subunit A</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3802,6 +4472,11 @@
       <c r="E135" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143853</t>
         </is>
       </c>
     </row>
@@ -3811,12 +4486,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SDHB</t>
+          <t>SDHAF1</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>succinate dehydrogenase complex iron sulfur subunit B</t>
+          <t>succinate dehydrogenase complex assembly factor 1</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3827,6 +4502,11 @@
       <c r="E136" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143855</t>
         </is>
       </c>
     </row>
@@ -3836,12 +4516,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SLC16A2</t>
+          <t>SDHB</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>solute carrier family 16 member 2</t>
+          <t>succinate dehydrogenase complex iron sulfur subunit B</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3852,6 +4532,11 @@
       <c r="E137" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143858</t>
         </is>
       </c>
     </row>
@@ -3861,12 +4546,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SLC17A5</t>
+          <t>SLC16A2</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>solute carrier family 17 member 5</t>
+          <t>solute carrier family 16 member 2</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3877,6 +4562,11 @@
       <c r="E138" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143860</t>
         </is>
       </c>
     </row>
@@ -3886,12 +4576,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SLC25A12</t>
+          <t>SLC17A5</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>solute carrier family 25 member 12</t>
+          <t>solute carrier family 17 member 5</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3902,6 +4592,11 @@
       <c r="E139" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143862</t>
         </is>
       </c>
     </row>
@@ -3911,12 +4606,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SLC25A4</t>
+          <t>SLC25A12</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>solute carrier family 25 member 4</t>
+          <t>solute carrier family 25 member 12</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3927,6 +4622,11 @@
       <c r="E140" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143865</t>
         </is>
       </c>
     </row>
@@ -3936,12 +4636,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SNORD118</t>
+          <t>SLC25A4</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>small nucleolar RNA, C/D box 118</t>
+          <t>solute carrier family 25 member 4</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3952,6 +4652,11 @@
       <c r="E141" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143868</t>
         </is>
       </c>
     </row>
@@ -3961,12 +4666,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SOX10</t>
+          <t>SNORD118</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SRY-box 10</t>
+          <t>small nucleolar RNA, C/D box 118</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3977,6 +4682,11 @@
       <c r="E142" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143870</t>
         </is>
       </c>
     </row>
@@ -3986,12 +4696,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SPART</t>
+          <t>SOX10</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>spartin</t>
+          <t>SRY-box 10</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4002,6 +4712,11 @@
       <c r="E143" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143873</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4726,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SPG11</t>
+          <t>SPART</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SPG11, spatacsin vesicle trafficking associated</t>
+          <t>spartin</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4027,6 +4742,11 @@
       <c r="E144" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143875</t>
         </is>
       </c>
     </row>
@@ -4036,12 +4756,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SUCLA2</t>
+          <t>SPG11</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>succinate-CoA ligase ADP-forming beta subunit</t>
+          <t>SPG11, spatacsin vesicle trafficking associated</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4052,6 +4772,11 @@
       <c r="E145" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143877</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4786,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SUMF1</t>
+          <t>SUCLA2</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>sulfatase modifying factor 1</t>
+          <t>succinate-CoA ligase ADP-forming beta subunit</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4077,6 +4802,11 @@
       <c r="E146" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143880</t>
         </is>
       </c>
     </row>
@@ -4086,12 +4816,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SURF1</t>
+          <t>SUMF1</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SURF1, cytochrome c oxidase assembly factor</t>
+          <t>sulfatase modifying factor 1</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4102,6 +4832,11 @@
       <c r="E147" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143882</t>
         </is>
       </c>
     </row>
@@ -4111,12 +4846,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TACO1</t>
+          <t>SURF1</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>translational activator of cytochrome c oxidase I</t>
+          <t>SURF1, cytochrome c oxidase assembly factor</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4127,6 +4862,11 @@
       <c r="E148" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143885</t>
         </is>
       </c>
     </row>
@@ -4136,12 +4876,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TMEM106B</t>
+          <t>TACO1</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>transmembrane protein 106B</t>
+          <t>translational activator of cytochrome c oxidase I</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4152,6 +4892,11 @@
       <c r="E149" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143887</t>
         </is>
       </c>
     </row>
@@ -4161,12 +4906,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TMEM63A</t>
+          <t>TMEM106B</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>transmembrane protein 63A</t>
+          <t>transmembrane protein 106B</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4177,6 +4922,11 @@
       <c r="E150" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143890</t>
         </is>
       </c>
     </row>
@@ -4186,12 +4936,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TREX1</t>
+          <t>TMEM63A</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>three prime repair exonuclease 1</t>
+          <t>transmembrane protein 63A</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4202,6 +4952,11 @@
       <c r="E151" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143893</t>
         </is>
       </c>
     </row>
@@ -4211,12 +4966,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TUBB4A</t>
+          <t>TREX1</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>tubulin beta 4A class IVa</t>
+          <t>three prime repair exonuclease 1</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4227,6 +4982,11 @@
       <c r="E152" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143895</t>
         </is>
       </c>
     </row>
@@ -4236,12 +4996,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TUFM</t>
+          <t>TUBB4A</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Tu translation elongation factor, mitochondrial</t>
+          <t>tubulin beta 4A class IVa</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4252,6 +5012,11 @@
       <c r="E153" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143898</t>
         </is>
       </c>
     </row>
@@ -4261,12 +5026,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TYMP</t>
+          <t>TUFM</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>thymidine phosphorylase</t>
+          <t>Tu translation elongation factor, mitochondrial</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4277,6 +5042,11 @@
       <c r="E154" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143900</t>
         </is>
       </c>
     </row>
@@ -4286,12 +5056,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>UFM1</t>
+          <t>TYMP</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ubiquitin fold modifier 1</t>
+          <t>thymidine phosphorylase</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4302,6 +5072,11 @@
       <c r="E155" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143903</t>
         </is>
       </c>
     </row>
@@ -4311,12 +5086,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>VPS11</t>
+          <t>UFM1</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>VPS11, CORVET/HOPS core subunit</t>
+          <t>ubiquitin fold modifier 1</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4327,6 +5102,11 @@
       <c r="E156" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143905</t>
         </is>
       </c>
     </row>
@@ -4336,12 +5116,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>WARS2</t>
+          <t>VPS11</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>tryptophanyl tRNA synthetase 2, mitochondrial</t>
+          <t>VPS11, CORVET/HOPS core subunit</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4352,6 +5132,11 @@
       <c r="E157" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143908</t>
         </is>
       </c>
     </row>
@@ -4361,12 +5146,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ZFYVE26</t>
+          <t>WARS2</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>zinc finger FYVE-type containing 26</t>
+          <t>tryptophanyl tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4377,6 +5162,11 @@
       <c r="E158" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143911</t>
         </is>
       </c>
     </row>
@@ -4386,22 +5176,27 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ACER3</t>
+          <t>ZFYVE26</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>alkaline ceramidase 3</t>
+          <t>zinc finger FYVE-type containing 26</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143913</t>
         </is>
       </c>
     </row>
@@ -4411,12 +5206,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CNP</t>
+          <t>ACER3</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2',3'-cyclic nucleotide 3' phosphodiesterase</t>
+          <t>alkaline ceramidase 3</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4427,6 +5222,11 @@
       <c r="E160" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143916</t>
         </is>
       </c>
     </row>
@@ -4436,12 +5236,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CYP2U1</t>
+          <t>ATP11A</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>cytochrome P450 family 2 subfamily U member 1</t>
+          <t>ATPase phospholipid transporting 11A</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4452,6 +5252,11 @@
       <c r="E161" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143919</t>
         </is>
       </c>
     </row>
@@ -4461,12 +5266,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ERCC2</t>
+          <t>CNP</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>ERCC excision repair 2, TFIIH core complex helicase subunit</t>
+          <t>2',3'-cyclic nucleotide 3' phosphodiesterase</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4477,6 +5282,11 @@
       <c r="E162" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143921</t>
         </is>
       </c>
     </row>
@@ -4486,12 +5296,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>FDX2</t>
+          <t>CYP2U1</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>ferredoxin 2</t>
+          <t>cytochrome P450 family 2 subfamily U member 1</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4502,6 +5312,11 @@
       <c r="E163" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143924</t>
         </is>
       </c>
     </row>
@@ -4511,12 +5326,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>GFPT1</t>
+          <t>ERCC2</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>glutamine--fructose-6-phosphate transaminase 1</t>
+          <t>ERCC excision repair 2, TFIIH core complex helicase subunit</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4527,6 +5342,11 @@
       <c r="E164" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143926</t>
         </is>
       </c>
     </row>
@@ -4536,12 +5356,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>HMBS</t>
+          <t>FDX2</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>hydroxymethylbilane synthase</t>
+          <t>ferredoxin 2</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4552,6 +5372,11 @@
       <c r="E165" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143929</t>
         </is>
       </c>
     </row>
@@ -4561,12 +5386,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>LAMB1</t>
+          <t>GFPT1</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>laminin subunit beta 1</t>
+          <t>glutamine--fructose-6-phosphate transaminase 1</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4577,6 +5402,11 @@
       <c r="E166" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143931</t>
         </is>
       </c>
     </row>
@@ -4586,12 +5416,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NDUFA2</t>
+          <t>HMBS</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase subunit A2</t>
+          <t>hydroxymethylbilane synthase</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4602,6 +5432,11 @@
       <c r="E167" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143934</t>
         </is>
       </c>
     </row>
@@ -4611,12 +5446,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PLEKHG2</t>
+          <t>LAMB1</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>pleckstrin homology and RhoGEF domain containing G2</t>
+          <t>laminin subunit beta 1</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4627,6 +5462,11 @@
       <c r="E168" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143936</t>
         </is>
       </c>
     </row>
@@ -4636,12 +5476,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>POLR3K</t>
+          <t>NDUFA2</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>RNA polymerase III subunit K</t>
+          <t>NADH:ubiquinone oxidoreductase subunit A2</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4652,6 +5492,11 @@
       <c r="E169" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143939</t>
         </is>
       </c>
     </row>
@@ -4661,12 +5506,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>PPT1</t>
+          <t>PLEKHG2</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>palmitoyl-protein thioesterase 1</t>
+          <t>pleckstrin homology and RhoGEF domain containing G2</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4677,6 +5522,11 @@
       <c r="E170" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143942</t>
         </is>
       </c>
     </row>
@@ -4686,12 +5536,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>SLC13A5</t>
+          <t>POLR3K</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>solute carrier family 13 member 5</t>
+          <t>RNA polymerase III subunit K</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4702,6 +5552,11 @@
       <c r="E171" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143944</t>
         </is>
       </c>
     </row>
@@ -4711,12 +5566,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TOMM70</t>
+          <t>PPT1</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>translocase of outer mitochondrial membrane 70</t>
+          <t>palmitoyl-protein thioesterase 1</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4727,6 +5582,11 @@
       <c r="E172" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143947</t>
         </is>
       </c>
     </row>
@@ -4736,12 +5596,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TWNK</t>
+          <t>SLC13A5</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>twinkle mtDNA helicase</t>
+          <t>solute carrier family 13 member 5</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4752,6 +5612,11 @@
       <c r="E173" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143950</t>
         </is>
       </c>
     </row>
@@ -4761,22 +5626,27 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>AIMP2</t>
+          <t>TOMM70</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>aminoacyl tRNA synthetase complex interacting multifunctional protein 2</t>
+          <t>translocase of outer mitochondrial membrane 70</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143954</t>
         </is>
       </c>
     </row>
@@ -4786,22 +5656,27 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ATPAF2</t>
+          <t>TWNK</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>ATP synthase mitochondrial F1 complex assembly factor 2</t>
+          <t>twinkle mtDNA helicase</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143957</t>
         </is>
       </c>
     </row>
@@ -4811,12 +5686,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>COQ8A</t>
+          <t>AIMP2</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>coenzyme Q8A</t>
+          <t>aminoacyl tRNA synthetase complex interacting multifunctional protein 2</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4827,6 +5702,11 @@
       <c r="E176" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143959</t>
         </is>
       </c>
     </row>
@@ -4836,12 +5716,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>COQ9</t>
+          <t>ATPAF2</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>coenzyme Q9</t>
+          <t>ATP synthase mitochondrial F1 complex assembly factor 2</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4852,6 +5732,11 @@
       <c r="E177" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143962</t>
         </is>
       </c>
     </row>
@@ -4861,12 +5746,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ERCC3</t>
+          <t>COQ8A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ERCC excision repair 3, TFIIH core complex helicase subunit</t>
+          <t>coenzyme Q8A</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4877,6 +5762,11 @@
       <c r="E178" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143964</t>
         </is>
       </c>
     </row>
@@ -4886,12 +5776,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>GTF2H5</t>
+          <t>COQ9</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>general transcription factor IIH subunit 5</t>
+          <t>coenzyme Q9</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4902,6 +5792,11 @@
       <c r="E179" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143967</t>
         </is>
       </c>
     </row>
@@ -4911,12 +5806,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>LSM7</t>
+          <t>ERCC3</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>LSM7 homolog, U6 small nuclear RNA and mRNA degradation associated</t>
+          <t>ERCC excision repair 3, TFIIH core complex helicase subunit</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4927,6 +5822,11 @@
       <c r="E180" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143970</t>
         </is>
       </c>
     </row>
@@ -4936,12 +5836,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MPLKIP</t>
+          <t>GTF2H5</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>M-phase specific PLK1 interacting protein</t>
+          <t>general transcription factor IIH subunit 5</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4952,6 +5852,11 @@
       <c r="E181" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143972</t>
         </is>
       </c>
     </row>
@@ -4961,12 +5866,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MRPS16</t>
+          <t>LSM7</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>mitochondrial ribosomal protein S16</t>
+          <t>LSM7 homolog, U6 small nuclear RNA and mRNA degradation associated</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4977,6 +5882,11 @@
       <c r="E182" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143975</t>
         </is>
       </c>
     </row>
@@ -4986,12 +5896,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>OCLN</t>
+          <t>MPLKIP</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>occludin</t>
+          <t>M-phase specific PLK1 interacting protein</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5002,6 +5912,11 @@
       <c r="E183" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143977</t>
         </is>
       </c>
     </row>
@@ -5011,12 +5926,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>OCRL</t>
+          <t>MRPS16</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>OCRL, inositol polyphosphate-5-phosphatase</t>
+          <t>mitochondrial ribosomal protein S16</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5027,6 +5942,11 @@
       <c r="E184" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143980</t>
         </is>
       </c>
     </row>
@@ -5036,12 +5956,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>PHGDH</t>
+          <t>OCLN</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>phosphoglycerate dehydrogenase</t>
+          <t>occludin</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5052,6 +5972,11 @@
       <c r="E185" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143982</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5986,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>POLR1A</t>
+          <t>OCRL</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>RNA polymerase I subunit A</t>
+          <t>OCRL, inositol polyphosphate-5-phosphatase</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5077,6 +6002,11 @@
       <c r="E186" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143985</t>
         </is>
       </c>
     </row>
@@ -5086,12 +6016,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>PRF1</t>
+          <t>PHGDH</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>perforin 1</t>
+          <t>phosphoglycerate dehydrogenase</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5102,6 +6032,11 @@
       <c r="E187" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143988</t>
         </is>
       </c>
     </row>
@@ -5111,12 +6046,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>PSAT1</t>
+          <t>POLR1A</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>phosphoserine aminotransferase 1</t>
+          <t>RNA polymerase I subunit A</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5127,6 +6062,11 @@
       <c r="E188" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143990</t>
         </is>
       </c>
     </row>
@@ -5136,12 +6076,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SLC25A1</t>
+          <t>PRF1</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>solute carrier family 25 member 1</t>
+          <t>perforin 1</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5152,6 +6092,11 @@
       <c r="E189" t="inlineStr">
         <is>
           <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143993</t>
         </is>
       </c>
     </row>
@@ -5161,22 +6106,87 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
+          <t>PSAT1</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>phosphoserine aminotransferase 1</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143995</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>SLC25A1</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>solute carrier family 25 member 1</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.143998</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
           <t>STX11</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C192" t="inlineStr">
         <is>
           <t>syntaxin 11</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="D192" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Leukodystrophy - paediatric</t>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:27.144000</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/au/Leukodystrophy - paediatric.xlsx
+++ b/data/panelapp/au/Leukodystrophy - paediatric.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143496</t>
+          <t>2021-10-05 14:34:19.743288</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143507</t>
+          <t>2021-10-05 14:34:19.743296</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143511</t>
+          <t>2021-10-05 14:34:19.743299</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143513</t>
+          <t>2021-10-05 14:34:19.743302</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143516</t>
+          <t>2021-10-05 14:34:19.743305</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143519</t>
+          <t>2021-10-05 14:34:19.743307</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143521</t>
+          <t>2021-10-05 14:34:19.743310</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143524</t>
+          <t>2021-10-05 14:34:19.743312</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143527</t>
+          <t>2021-10-05 14:34:19.743315</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143529</t>
+          <t>2021-10-05 14:34:19.743317</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143532</t>
+          <t>2021-10-05 14:34:19.743320</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143534</t>
+          <t>2021-10-05 14:34:19.743322</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143537</t>
+          <t>2021-10-05 14:34:19.743325</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143539</t>
+          <t>2021-10-05 14:34:19.743327</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143542</t>
+          <t>2021-10-05 14:34:19.743330</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143544</t>
+          <t>2021-10-05 14:34:19.743332</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143547</t>
+          <t>2021-10-05 14:34:19.743335</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143550</t>
+          <t>2021-10-05 14:34:19.743338</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143553</t>
+          <t>2021-10-05 14:34:19.743340</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143555</t>
+          <t>2021-10-05 14:34:19.743343</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143558</t>
+          <t>2021-10-05 14:34:19.743345</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143560</t>
+          <t>2021-10-05 14:34:19.743348</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143563</t>
+          <t>2021-10-05 14:34:19.743350</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143565</t>
+          <t>2021-10-05 14:34:19.743352</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143568</t>
+          <t>2021-10-05 14:34:19.743355</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143570</t>
+          <t>2021-10-05 14:34:19.743358</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143573</t>
+          <t>2021-10-05 14:34:19.743360</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143575</t>
+          <t>2021-10-05 14:34:19.743363</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143578</t>
+          <t>2021-10-05 14:34:19.743365</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143581</t>
+          <t>2021-10-05 14:34:19.743368</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143583</t>
+          <t>2021-10-05 14:34:19.743370</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143586</t>
+          <t>2021-10-05 14:34:19.743372</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143588</t>
+          <t>2021-10-05 14:34:19.743376</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143591</t>
+          <t>2021-10-05 14:34:19.743378</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143594</t>
+          <t>2021-10-05 14:34:19.743381</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143596</t>
+          <t>2021-10-05 14:34:19.743383</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143599</t>
+          <t>2021-10-05 14:34:19.743385</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143601</t>
+          <t>2021-10-05 14:34:19.743388</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143604</t>
+          <t>2021-10-05 14:34:19.743390</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143606</t>
+          <t>2021-10-05 14:34:19.743393</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143609</t>
+          <t>2021-10-05 14:34:19.743396</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143612</t>
+          <t>2021-10-05 14:34:19.743398</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143614</t>
+          <t>2021-10-05 14:34:19.743401</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143617</t>
+          <t>2021-10-05 14:34:19.743403</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143620</t>
+          <t>2021-10-05 14:34:19.743405</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143622</t>
+          <t>2021-10-05 14:34:19.743408</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143625</t>
+          <t>2021-10-05 14:34:19.743410</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143627</t>
+          <t>2021-10-05 14:34:19.743413</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143630</t>
+          <t>2021-10-05 14:34:19.743415</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143632</t>
+          <t>2021-10-05 14:34:19.743417</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143635</t>
+          <t>2021-10-05 14:34:19.743420</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143637</t>
+          <t>2021-10-05 14:34:19.743422</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143641</t>
+          <t>2021-10-05 14:34:19.743425</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143643</t>
+          <t>2021-10-05 14:34:19.743428</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143646</t>
+          <t>2021-10-05 14:34:19.743430</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143648</t>
+          <t>2021-10-05 14:34:19.743433</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143651</t>
+          <t>2021-10-05 14:34:19.743435</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143653</t>
+          <t>2021-10-05 14:34:19.743438</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143656</t>
+          <t>2021-10-05 14:34:19.743440</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143658</t>
+          <t>2021-10-05 14:34:19.743443</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143661</t>
+          <t>2021-10-05 14:34:19.743445</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143663</t>
+          <t>2021-10-05 14:34:19.743448</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143665</t>
+          <t>2021-10-05 14:34:19.743450</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143668</t>
+          <t>2021-10-05 14:34:19.743452</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143671</t>
+          <t>2021-10-05 14:34:19.743456</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143674</t>
+          <t>2021-10-05 14:34:19.743459</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143677</t>
+          <t>2021-10-05 14:34:19.743461</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143679</t>
+          <t>2021-10-05 14:34:19.743464</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143682</t>
+          <t>2021-10-05 14:34:19.743466</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143684</t>
+          <t>2021-10-05 14:34:19.743469</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143687</t>
+          <t>2021-10-05 14:34:19.743471</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143690</t>
+          <t>2021-10-05 14:34:19.743473</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143692</t>
+          <t>2021-10-05 14:34:19.743476</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143695</t>
+          <t>2021-10-05 14:34:19.743478</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143697</t>
+          <t>2021-10-05 14:34:19.743481</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143699</t>
+          <t>2021-10-05 14:34:19.743483</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143704</t>
+          <t>2021-10-05 14:34:19.743488</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143707</t>
+          <t>2021-10-05 14:34:19.743491</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143709</t>
+          <t>2021-10-05 14:34:19.743493</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143712</t>
+          <t>2021-10-05 14:34:19.743496</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143714</t>
+          <t>2021-10-05 14:34:19.743498</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143717</t>
+          <t>2021-10-05 14:34:19.743501</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143719</t>
+          <t>2021-10-05 14:34:19.743503</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143722</t>
+          <t>2021-10-05 14:34:19.743505</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143724</t>
+          <t>2021-10-05 14:34:19.743508</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143727</t>
+          <t>2021-10-05 14:34:19.743510</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143729</t>
+          <t>2021-10-05 14:34:19.743513</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143732</t>
+          <t>2021-10-05 14:34:19.743515</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143734</t>
+          <t>2021-10-05 14:34:19.743517</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143737</t>
+          <t>2021-10-05 14:34:19.743520</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143739</t>
+          <t>2021-10-05 14:34:19.743522</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143742</t>
+          <t>2021-10-05 14:34:19.743525</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143745</t>
+          <t>2021-10-05 14:34:19.743528</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143748</t>
+          <t>2021-10-05 14:34:19.743531</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143751</t>
+          <t>2021-10-05 14:34:19.743534</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143753</t>
+          <t>2021-10-05 14:34:19.743537</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143756</t>
+          <t>2021-10-05 14:34:19.743539</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143758</t>
+          <t>2021-10-05 14:34:19.743541</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143761</t>
+          <t>2021-10-05 14:34:19.743544</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143763</t>
+          <t>2021-10-05 14:34:19.743546</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143766</t>
+          <t>2021-10-05 14:34:19.743549</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143768</t>
+          <t>2021-10-05 14:34:19.743551</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143771</t>
+          <t>2021-10-05 14:34:19.743553</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143773</t>
+          <t>2021-10-05 14:34:19.743556</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143776</t>
+          <t>2021-10-05 14:34:19.743558</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143778</t>
+          <t>2021-10-05 14:34:19.743561</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143781</t>
+          <t>2021-10-05 14:34:19.743563</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143784</t>
+          <t>2021-10-05 14:34:19.743566</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143788</t>
+          <t>2021-10-05 14:34:19.743570</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143791</t>
+          <t>2021-10-05 14:34:19.743573</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143793</t>
+          <t>2021-10-05 14:34:19.743575</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143796</t>
+          <t>2021-10-05 14:34:19.743578</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143798</t>
+          <t>2021-10-05 14:34:19.743580</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143801</t>
+          <t>2021-10-05 14:34:19.743583</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143803</t>
+          <t>2021-10-05 14:34:19.743585</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143806</t>
+          <t>2021-10-05 14:34:19.743588</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143808</t>
+          <t>2021-10-05 14:34:19.743590</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143811</t>
+          <t>2021-10-05 14:34:19.743593</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143813</t>
+          <t>2021-10-05 14:34:19.743595</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143816</t>
+          <t>2021-10-05 14:34:19.743597</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143818</t>
+          <t>2021-10-05 14:34:19.743600</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143821</t>
+          <t>2021-10-05 14:34:19.743602</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143823</t>
+          <t>2021-10-05 14:34:19.743605</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143826</t>
+          <t>2021-10-05 14:34:19.743607</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143828</t>
+          <t>2021-10-05 14:34:19.743609</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143830</t>
+          <t>2021-10-05 14:34:19.743612</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143833</t>
+          <t>2021-10-05 14:34:19.743614</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143836</t>
+          <t>2021-10-05 14:34:19.743617</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143840</t>
+          <t>2021-10-05 14:34:19.743621</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143843</t>
+          <t>2021-10-05 14:34:19.743624</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143845</t>
+          <t>2021-10-05 14:34:19.743626</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143848</t>
+          <t>2021-10-05 14:34:19.743629</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143850</t>
+          <t>2021-10-05 14:34:19.743631</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143853</t>
+          <t>2021-10-05 14:34:19.743634</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143855</t>
+          <t>2021-10-05 14:34:19.743636</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143858</t>
+          <t>2021-10-05 14:34:19.743638</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143860</t>
+          <t>2021-10-05 14:34:19.743641</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143862</t>
+          <t>2021-10-05 14:34:19.743643</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143865</t>
+          <t>2021-10-05 14:34:19.743646</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143868</t>
+          <t>2021-10-05 14:34:19.743648</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143870</t>
+          <t>2021-10-05 14:34:19.743651</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143873</t>
+          <t>2021-10-05 14:34:19.743653</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143875</t>
+          <t>2021-10-05 14:34:19.743655</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143877</t>
+          <t>2021-10-05 14:34:19.743658</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143880</t>
+          <t>2021-10-05 14:34:19.743661</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143882</t>
+          <t>2021-10-05 14:34:19.743663</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143885</t>
+          <t>2021-10-05 14:34:19.743665</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143887</t>
+          <t>2021-10-05 14:34:19.743668</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143890</t>
+          <t>2021-10-05 14:34:19.743671</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143893</t>
+          <t>2021-10-05 14:34:19.743673</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143895</t>
+          <t>2021-10-05 14:34:19.743676</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143898</t>
+          <t>2021-10-05 14:34:19.743678</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143900</t>
+          <t>2021-10-05 14:34:19.743681</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143903</t>
+          <t>2021-10-05 14:34:19.743683</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143905</t>
+          <t>2021-10-05 14:34:19.743686</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143908</t>
+          <t>2021-10-05 14:34:19.743688</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143911</t>
+          <t>2021-10-05 14:34:19.743691</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143913</t>
+          <t>2021-10-05 14:34:19.743693</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143916</t>
+          <t>2021-10-05 14:34:19.743696</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143919</t>
+          <t>2021-10-05 14:34:19.743698</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143921</t>
+          <t>2021-10-05 14:34:19.743701</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143924</t>
+          <t>2021-10-05 14:34:19.743703</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143926</t>
+          <t>2021-10-05 14:34:19.743706</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143929</t>
+          <t>2021-10-05 14:34:19.743708</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143931</t>
+          <t>2021-10-05 14:34:19.743711</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143934</t>
+          <t>2021-10-05 14:34:19.743713</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143936</t>
+          <t>2021-10-05 14:34:19.743716</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143939</t>
+          <t>2021-10-05 14:34:19.743718</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143942</t>
+          <t>2021-10-05 14:34:19.743721</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143944</t>
+          <t>2021-10-05 14:34:19.743723</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143947</t>
+          <t>2021-10-05 14:34:19.743725</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143950</t>
+          <t>2021-10-05 14:34:19.743728</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143954</t>
+          <t>2021-10-05 14:34:19.743732</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143957</t>
+          <t>2021-10-05 14:34:19.743735</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143959</t>
+          <t>2021-10-05 14:34:19.743737</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143962</t>
+          <t>2021-10-05 14:34:19.743740</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143964</t>
+          <t>2021-10-05 14:34:19.743742</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143967</t>
+          <t>2021-10-05 14:34:19.743745</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143970</t>
+          <t>2021-10-05 14:34:19.743747</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143972</t>
+          <t>2021-10-05 14:34:19.743750</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143975</t>
+          <t>2021-10-05 14:34:19.743752</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143977</t>
+          <t>2021-10-05 14:34:19.743755</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143980</t>
+          <t>2021-10-05 14:34:19.743757</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143982</t>
+          <t>2021-10-05 14:34:19.743760</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143985</t>
+          <t>2021-10-05 14:34:19.743762</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143988</t>
+          <t>2021-10-05 14:34:19.743764</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143990</t>
+          <t>2021-10-05 14:34:19.743767</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143993</t>
+          <t>2021-10-05 14:34:19.743769</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143995</t>
+          <t>2021-10-05 14:34:19.743772</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.143998</t>
+          <t>2021-10-05 14:34:19.743775</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,91 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:27.144000</t>
+          <t>2021-10-05 14:34:19.743777</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Leukodystrophy - paediatric</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>298</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.236</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-10-04T06:52:59.383651Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:34:19.739804</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.agha.umccr.org/api/v1/panels/298/?format=json</t>
         </is>
       </c>
     </row>
